--- a/Team-Data/2013-14/1-9-2013-14.xlsx
+++ b/Team-Data/2013-14/1-9-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -804,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -935,13 +1002,13 @@
         <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -965,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -998,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1120,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1147,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
@@ -1353,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
@@ -1669,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1958,67 +2025,67 @@
         <v>37.9</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
         <v>12.7</v>
       </c>
       <c r="S9" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="T9" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="U9" t="n">
         <v>22</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
         <v>7.3</v>
       </c>
       <c r="X9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AA9" t="n">
         <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2039,16 +2106,16 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL9" t="n">
         <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2063,13 +2130,13 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>14</v>
@@ -2078,10 +2145,10 @@
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2776,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3000,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
         <v>10</v>
@@ -3179,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>16</v>
@@ -3355,13 +3422,13 @@
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>13</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.771</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.512</v>
+        <v>0.511</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3426,34 +3493,34 @@
         <v>21.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.755</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="S17" t="n">
         <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V17" t="n">
         <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,34 +3529,34 @@
         <v>2.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.5</v>
+        <v>104.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,13 +3574,13 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3546,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -3853,13 +3920,13 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4035,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4080,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4124,106 +4191,106 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
         <v>83.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="P21" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W21" t="n">
         <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
       </c>
       <c r="AG21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
         <v>23</v>
       </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4259,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,10 +4338,10 @@
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
         <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.771</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
         <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
@@ -4348,7 +4415,7 @@
         <v>0.8179999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
         <v>35.9</v>
@@ -4357,52 +4424,52 @@
         <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.3</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4411,7 +4478,7 @@
         <v>22</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -4435,28 +4502,28 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>12</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF24" t="n">
         <v>25</v>
@@ -4793,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -5118,10 +5185,10 @@
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
@@ -5145,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5603,7 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5679,10 +5746,10 @@
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>28</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5879,7 +5946,7 @@
         <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-9-2013-14</t>
+          <t>2014-01-09</t>
         </is>
       </c>
     </row>
